--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\masterthesisSecret\steps\The actual project\content to commit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93888FF-C383-4A20-AC5A-AB76270A68BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,70 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+  <si>
+    <t>Testing Epochs Scenario</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>MAE Latitude</t>
+  </si>
+  <si>
+    <t>MAE Longitude</t>
+  </si>
+  <si>
+    <t>RMSE Latitude</t>
+  </si>
+  <si>
+    <t>RMSE Longitude</t>
+  </si>
+  <si>
+    <t>Testing Units Scenario</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Testing Activations Scenario</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>relu</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Sigmoid</t>
+  </si>
+  <si>
+    <t>SoftPlus</t>
+  </si>
+  <si>
+    <t>Tahn</t>
+  </si>
+  <si>
+    <t>Testing Anticipation Scenario</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>cyclic</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +398,364 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>8.2970719840127993E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.32484734962200101</v>
+      </c>
+      <c r="D3">
+        <v>0.18266855782366301</v>
+      </c>
+      <c r="E3">
+        <v>0.66924734465049096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>1.5463259035930699E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.01952469303745E-2</v>
+      </c>
+      <c r="D4">
+        <v>9.6258813483183894E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.18485064806864801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>500</v>
+      </c>
+      <c r="B5">
+        <v>3.1050545169861901E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.2311802088196098E-2</v>
+      </c>
+      <c r="D5">
+        <v>7.1753596482378099E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.14191837441041599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>9.18616152861392E-3</v>
+      </c>
+      <c r="C6">
+        <v>2.91620273138989E-2</v>
+      </c>
+      <c r="D6">
+        <v>6.1132870772399699E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.107507907705538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>9.18616152861392E-3</v>
+      </c>
+      <c r="C11">
+        <v>2.91620273138989E-2</v>
+      </c>
+      <c r="D11">
+        <v>6.1132870772399699E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.107507907705538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>2.29251242959886E-2</v>
+      </c>
+      <c r="C12">
+        <v>2.6419629111345301E-2</v>
+      </c>
+      <c r="D12">
+        <v>7.5781045442915501E-2</v>
+      </c>
+      <c r="E12">
+        <v>6.14849283177831E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>500</v>
+      </c>
+      <c r="B13">
+        <v>2.3442447640723799E-2</v>
+      </c>
+      <c r="C13">
+        <v>3.7877987407419003E-2</v>
+      </c>
+      <c r="D13">
+        <v>7.7182472534437593E-2</v>
+      </c>
+      <c r="E13">
+        <v>7.1557683886921603E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1000</v>
+      </c>
+      <c r="B14">
+        <v>8.7985649010277299E-3</v>
+      </c>
+      <c r="C14">
+        <v>6.3664978495458699E-2</v>
+      </c>
+      <c r="D14">
+        <v>5.7300794077937998E-2</v>
+      </c>
+      <c r="E14">
+        <v>8.5361579095533394E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>9.18616152861392E-3</v>
+      </c>
+      <c r="C19">
+        <v>2.91620273138989E-2</v>
+      </c>
+      <c r="D19">
+        <v>6.1132870772399699E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.107507907705538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>1.29764720936017E-2</v>
+      </c>
+      <c r="C20">
+        <v>6.38223918333826E-3</v>
+      </c>
+      <c r="D20">
+        <v>4.3596487969186297E-2</v>
+      </c>
+      <c r="E20">
+        <v>2.6846473065442401E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>9.6779705392663704E-3</v>
+      </c>
+      <c r="C21">
+        <v>5.86969380989811E-3</v>
+      </c>
+      <c r="D21">
+        <v>5.1010822072126698E-2</v>
+      </c>
+      <c r="E21">
+        <v>2.6711359071230199E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>1.0367250064069199E-2</v>
+      </c>
+      <c r="C22">
+        <v>2.22531231519357E-2</v>
+      </c>
+      <c r="D22">
+        <v>4.7673735576762702E-2</v>
+      </c>
+      <c r="E22">
+        <v>7.1859023986932197E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>2.60999028932043E-2</v>
+      </c>
+      <c r="C23">
+        <v>1.3418703414070299E-2</v>
+      </c>
+      <c r="D23">
+        <v>5.0009259420673503E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.92744594391776E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>9.18616152861392E-3</v>
+      </c>
+      <c r="C28">
+        <v>2.91620273138989E-2</v>
+      </c>
+      <c r="D28">
+        <v>6.1132870772399699E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.107507907705538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>1.51025068435228E-2</v>
+      </c>
+      <c r="C29">
+        <v>3.8248616113415998E-2</v>
+      </c>
+      <c r="D29">
+        <v>4.7979877606940599E-2</v>
+      </c>
+      <c r="E29">
+        <v>6.1632094677201599E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\masterthesisSecret\steps\The actual project\content to commit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93888FF-C383-4A20-AC5A-AB76270A68BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2DDB1C-FE9D-4D80-8A52-87D83428B5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Anticipation" sheetId="5" r:id="rId2"/>
+    <sheet name="Activations" sheetId="4" r:id="rId3"/>
+    <sheet name="Epochs" sheetId="3" r:id="rId4"/>
+    <sheet name="Units" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
   <si>
     <t>Testing Epochs Scenario</t>
   </si>
@@ -134,6 +138,8308 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>MAE on Anticipation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Anticipation!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Anticipation!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MAE Longitude</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAE Latitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Anticipation!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9.18616152861392E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.91620273138989E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83AC-46AF-9046-8F1919224FFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Anticipation!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cyclic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Anticipation!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MAE Longitude</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAE Latitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Anticipation!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.51025068435228E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8248616113415998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-83AC-46AF-9046-8F1919224FFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1483863952"/>
+        <c:axId val="1483874032"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1483863952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1483874032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1483874032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1483863952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>RMSE on Anticipation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Anticipation!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Anticipation!$D$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>RMSE Longitude</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RMSE Latitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Anticipation!$D$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.1132870772399699E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.107507907705538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97F9-4073-9E88-FC453F1CA77E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Anticipation!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cyclic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Anticipation!$D$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>RMSE Longitude</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RMSE Latitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Anticipation!$D$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.7979877606940599E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1632094677201599E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97F9-4073-9E88-FC453F1CA77E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1481610208"/>
+        <c:axId val="1481611168"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1481610208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1481611168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1481611168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1481610208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>MAE on activations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Activations!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE Longitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Activations!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>relu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SoftPlus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tahn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Activations!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.18616152861392E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29764720936017E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6779705392663704E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0367250064069199E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.60999028932043E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A967-46BB-A39B-67CF754508BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Activations!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE Latitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Activations!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>relu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SoftPlus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tahn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Activations!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.91620273138989E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.38223918333826E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.86969380989811E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.22531231519357E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3418703414070299E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A967-46BB-A39B-67CF754508BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1483868272"/>
+        <c:axId val="1483859152"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1483868272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1483859152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1483859152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1483868272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>RMSE on activations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Activations!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE Longitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Activations!$A$3,Activations!$A$4,Activations!$A$5,Activations!$A$6,Activations!$A$7)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>relu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SoftPlus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tahn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Activations!$D$3,Activations!$D$4,Activations!$D$5,Activations!$D$6,Activations!$D$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.1132870772399699E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3596487969186297E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1010822072126698E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7673735576762702E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0009259420673503E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F77-4AD6-8D06-E7BA5452821E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Activations!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE Latitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Activations!$A$3,Activations!$A$4,Activations!$A$5,Activations!$A$6,Activations!$A$7)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>relu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SoftPlus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tahn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Activations!$E$3,Activations!$E$4,Activations!$E$5,Activations!$E$6,Activations!$E$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.107507907705538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6846473065442401E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6711359071230199E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1859023986932197E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.92744594391776E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F77-4AD6-8D06-E7BA5452821E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1686970208"/>
+        <c:axId val="1481608288"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1686970208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1481608288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1481608288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1686970208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MAE on a different number of epochs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Epochs!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE Longitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Epochs!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Epochs!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.2970719840127993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5463259035930699E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1050545169861901E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.18616152861392E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FA8-4491-B2BE-1C39CF547DD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Epochs!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE Latitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Epochs!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Epochs!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.32484734962200101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.01952469303745E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2311802088196098E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.91620273138989E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9FA8-4491-B2BE-1C39CF547DD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1686970208"/>
+        <c:axId val="1686978848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1686970208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1686978848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1686978848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1686970208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> RMSE on a different number of epochs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Epochs!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE Longitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Epochs!$A$3,Epochs!$A$4,Epochs!$A$5,Epochs!$A$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Epochs!$D$3,Epochs!$D$4,Epochs!$D$5,Epochs!$D$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.18266855782366301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6258813483183894E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1753596482378099E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1132870772399699E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2917-4B2B-BCEA-5A6DE151C5E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Epochs!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE Latitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Epochs!$A$3,Epochs!$A$4,Epochs!$A$5,Epochs!$A$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Epochs!$E$3,Epochs!$E$4,Epochs!$E$5,Epochs!$E$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.66924734465049096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18485064806864801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14191837441041599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.107507907705538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2917-4B2B-BCEA-5A6DE151C5E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1497044224"/>
+        <c:axId val="1497044704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1497044224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1497044704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1497044704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1497044224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>MAE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> on a different number of units</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Units!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE Longitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Units!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Units!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.18616152861392E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.29251242959886E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3442447640723799E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7985649010277299E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EAE-4F34-BB77-57ED7220667B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Units!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE Latitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Units!$A$3:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Units!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.91620273138989E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6419629111345301E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7877987407419003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3664978495458699E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4EAE-4F34-BB77-57ED7220667B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1686981248"/>
+        <c:axId val="1686972608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1686981248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1686972608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1686972608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1686981248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RMSE on a different number of units</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Units!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE Longitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Units!$A$3,Units!$A$4,Units!$A$5,Units!$A$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Units!$D$3,Units!$D$4,Units!$D$5,Units!$D$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.1132870772399699E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5781045442915501E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7182472534437593E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7300794077937998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0541-4DAF-ACCE-6A1C66482220}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Units!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RMSE Latitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Units!$A$3,Units!$A$4,Units!$A$5,Units!$A$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Units!$E$3,Units!$E$4,Units!$E$5,Units!$E$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.107507907705538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.14849283177831E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1557683886921603E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5361579095533394E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0541-4DAF-ACCE-6A1C66482220}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1686981728"/>
+        <c:axId val="1686966848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1686981728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1686966848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1686966848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1686981728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA72EF04-6208-E4F8-FDC6-07C316A443DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63162942-34F1-9CAE-5E0E-5B0212E36F85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35EB652-A89B-74CC-D044-8EBF2CCF14E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE492CF9-5EEB-59C3-AC6A-4738C5961C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C8D57C3-F3C1-22F7-9A10-C0A62DAB4E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45C4FEE-3E91-22B1-EFFB-73D2B908BC70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272DB9B7-8129-E6C1-ED8E-BC70257DD839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8829BC-FF6E-9F4C-483A-785724FC17FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,8 +8707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F31" sqref="A26:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,4 +9064,411 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED72A23-D684-45B3-94B4-2A1795DD36A3}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>9.18616152861392E-3</v>
+      </c>
+      <c r="C3">
+        <v>2.91620273138989E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.1132870772399699E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.107507907705538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1.51025068435228E-2</v>
+      </c>
+      <c r="C4">
+        <v>3.8248616113415998E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.7979877606940599E-2</v>
+      </c>
+      <c r="E4">
+        <v>6.1632094677201599E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E84563-F0ED-47D3-9BBB-C8D077ECDE81}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>9.18616152861392E-3</v>
+      </c>
+      <c r="C3">
+        <v>2.91620273138989E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.1132870772399699E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.107507907705538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1.29764720936017E-2</v>
+      </c>
+      <c r="C4">
+        <v>6.38223918333826E-3</v>
+      </c>
+      <c r="D4">
+        <v>4.3596487969186297E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.6846473065442401E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>9.6779705392663704E-3</v>
+      </c>
+      <c r="C5">
+        <v>5.86969380989811E-3</v>
+      </c>
+      <c r="D5">
+        <v>5.1010822072126698E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.6711359071230199E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1.0367250064069199E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.22531231519357E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.7673735576762702E-2</v>
+      </c>
+      <c r="E6">
+        <v>7.1859023986932197E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>2.60999028932043E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.3418703414070299E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.0009259420673503E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.92744594391776E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E9CEBD-43B9-44AF-AD59-67E184313D68}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>8.2970719840127993E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.32484734962200101</v>
+      </c>
+      <c r="D3">
+        <v>0.18266855782366301</v>
+      </c>
+      <c r="E3">
+        <v>0.66924734465049096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>1.5463259035930699E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.01952469303745E-2</v>
+      </c>
+      <c r="D4">
+        <v>9.6258813483183894E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.18485064806864801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>500</v>
+      </c>
+      <c r="B5">
+        <v>3.1050545169861901E-2</v>
+      </c>
+      <c r="C5">
+        <v>2.2311802088196098E-2</v>
+      </c>
+      <c r="D5">
+        <v>7.1753596482378099E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.14191837441041599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>9.18616152861392E-3</v>
+      </c>
+      <c r="C6">
+        <v>2.91620273138989E-2</v>
+      </c>
+      <c r="D6">
+        <v>6.1132870772399699E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.107507907705538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904734E7-6F0E-4A4D-B501-0A622C6E9129}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>9.18616152861392E-3</v>
+      </c>
+      <c r="C3">
+        <v>2.91620273138989E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.1132870772399699E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.107507907705538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>2.29251242959886E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.6419629111345301E-2</v>
+      </c>
+      <c r="D4">
+        <v>7.5781045442915501E-2</v>
+      </c>
+      <c r="E4">
+        <v>6.14849283177831E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>500</v>
+      </c>
+      <c r="B5">
+        <v>2.3442447640723799E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.7877987407419003E-2</v>
+      </c>
+      <c r="D5">
+        <v>7.7182472534437593E-2</v>
+      </c>
+      <c r="E5">
+        <v>7.1557683886921603E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>8.7985649010277299E-3</v>
+      </c>
+      <c r="C6">
+        <v>6.3664978495458699E-2</v>
+      </c>
+      <c r="D6">
+        <v>5.7300794077937998E-2</v>
+      </c>
+      <c r="E6">
+        <v>8.5361579095533394E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>